--- a/KiemThuNangCao_Intellij/Document/Template_Testdesign.xlsx
+++ b/KiemThuNangCao_Intellij/Document/Template_Testdesign.xlsx
@@ -1,19 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://feedu-my.sharepoint.com/personal/dungna29_fe_edu_vn/Documents/PT14304-UD SOF303 Kiểm thử/Template DungNA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SP2022\KiemThuNangCao_Intellij\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{260543B2-6FF9-46B3-9737-6DDC93BFA46C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FFD89F8C-EA44-4E25-8107-F2BF24C91029}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39FF0A10-C2EE-4104-8BAD-C9175E064F7E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Testdesign" sheetId="1" r:id="rId1"/>
+    <sheet name="Supplier(ducnv)" sheetId="1" r:id="rId1"/>
+    <sheet name="Vudd" sheetId="4" r:id="rId2"/>
+    <sheet name="Minhvn" sheetId="5" r:id="rId3"/>
+    <sheet name="Tunm" sheetId="3" r:id="rId4"/>
+    <sheet name="lannt" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="ACTION">#REF!</definedName>
@@ -24,18 +28,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="87">
   <si>
     <t>Requirement Level 1
 Yêu cầu cấp 1</t>
@@ -148,9 +146,6 @@
     <t>GUI</t>
   </si>
   <si>
-    <t>File chỉ là test  case nháp chung chung</t>
-  </si>
-  <si>
     <t>Tên của màn mà được đặt tên trong file thiết kế</t>
   </si>
   <si>
@@ -170,13 +165,148 @@
   </si>
   <si>
     <t>Check login with wrong hoặc  right User name &amp; wrong hoặc right Password</t>
+  </si>
+  <si>
+    <t>Quản lý nhà cung cấp</t>
+  </si>
+  <si>
+    <t>Thêm tên nhà cung cấp</t>
+  </si>
+  <si>
+    <t>Thêm địa chỉ nhà cung cấp</t>
+  </si>
+  <si>
+    <t>Thêm số điện thoại nhà cung cấp</t>
+  </si>
+  <si>
+    <t>SP_01</t>
+  </si>
+  <si>
+    <t>SP_02</t>
+  </si>
+  <si>
+    <t>SP_03</t>
+  </si>
+  <si>
+    <t>SP_04</t>
+  </si>
+  <si>
+    <t>SP_05</t>
+  </si>
+  <si>
+    <t>SP_06</t>
+  </si>
+  <si>
+    <t>SP_07</t>
+  </si>
+  <si>
+    <t>SP_08</t>
+  </si>
+  <si>
+    <t>SP_09</t>
+  </si>
+  <si>
+    <t>SP_10</t>
+  </si>
+  <si>
+    <t>SP_11</t>
+  </si>
+  <si>
+    <t>Thêm tên nhà cung cấp đúng</t>
+  </si>
+  <si>
+    <t>Thêm số điện thoại nhà cung cấp đúng</t>
+  </si>
+  <si>
+    <t>AdiasNew</t>
+  </si>
+  <si>
+    <t>Thêm tên nhà cung cấp với 4 ký tự</t>
+  </si>
+  <si>
+    <t>Adia</t>
+  </si>
+  <si>
+    <t>Thêm tên nhà cung cấp với 256 ký tự</t>
+  </si>
+  <si>
+    <t>Thêm địa chỉ nhà cung cấp đúng</t>
+  </si>
+  <si>
+    <t>Thêm tên nhà cung cấp với giá trị giỗng</t>
+  </si>
+  <si>
+    <t>Hà Nội</t>
+  </si>
+  <si>
+    <t>Thêm địa chỉ nhà cung cấp với giá trị giỗng</t>
+  </si>
+  <si>
+    <t>Thêm địa chỉ nhà cung cấp với 4 ký tự</t>
+  </si>
+  <si>
+    <t>Thêm địa chỉ nhà cung cấp với 256 ký tự</t>
+  </si>
+  <si>
+    <t>SP_12</t>
+  </si>
+  <si>
+    <t>Thêm số điện thoại với chín số</t>
+  </si>
+  <si>
+    <t>Thêm số điện thoại với mười một số</t>
+  </si>
+  <si>
+    <t>0332429178</t>
+  </si>
+  <si>
+    <t>033242917</t>
+  </si>
+  <si>
+    <t>03324291789</t>
+  </si>
+  <si>
+    <t>Thêm số điện thoại với giá trị giỗng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thêm số điện thoại chứa chữ cái </t>
+  </si>
+  <si>
+    <t>03324291DD</t>
+  </si>
+  <si>
+    <t>Thêm số điện thoại chứa ký tự đặc biệt</t>
+  </si>
+  <si>
+    <t>03324291*_</t>
+  </si>
+  <si>
+    <t>SP_13</t>
+  </si>
+  <si>
+    <t>SP_14</t>
+  </si>
+  <si>
+    <t>Check GUI Form</t>
+  </si>
+  <si>
+    <t>Check responsive</t>
+  </si>
+  <si>
+    <t>SP_15</t>
+  </si>
+  <si>
+    <t>SP_16</t>
+  </si>
+  <si>
+    <t>Check Form Quản lý nhà cung cấp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -220,6 +350,33 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -235,7 +392,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -295,13 +452,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -347,6 +519,44 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -629,10 +839,478 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="45.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20" style="2" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" style="15" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="10.28515625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="51">
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="25.5" customHeight="1">
+      <c r="A2" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="17"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="21"/>
+      <c r="H3" s="18"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="18"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="21"/>
+      <c r="H5" s="18"/>
+    </row>
+    <row r="6" spans="1:8" ht="25.5" customHeight="1">
+      <c r="A6" s="20"/>
+      <c r="B6" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="H6" s="18"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="25"/>
+      <c r="H7" s="18"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="21"/>
+      <c r="H8" s="18"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="26"/>
+      <c r="H9" s="18"/>
+    </row>
+    <row r="10" spans="1:8" ht="25.5" customHeight="1">
+      <c r="A10" s="20"/>
+      <c r="B10" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="H10" s="18"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="20"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11" s="18"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="20"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="H12" s="18"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="20"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="26"/>
+      <c r="H13" s="18"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="20"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="H14" s="18"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="20"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="H15" s="18"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="20"/>
+      <c r="B16" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="26"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="20"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="26"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="B18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="B19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="B20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="B21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="18"/>
+      <c r="B22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="18"/>
+      <c r="B23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="18"/>
+      <c r="B24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="18"/>
+      <c r="B25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="18"/>
+      <c r="B26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="18"/>
+      <c r="B27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="18"/>
+      <c r="B28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="18"/>
+      <c r="B29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="18"/>
+      <c r="B30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="18"/>
+      <c r="B31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="18"/>
+      <c r="B32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="18"/>
+      <c r="B33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="18"/>
+      <c r="B34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="18"/>
+      <c r="B35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="B36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="G36" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B10:B15"/>
+    <mergeCell ref="C11:C15"/>
+    <mergeCell ref="A2:A17"/>
+  </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.2" right="0.19" top="0.34" bottom="0.35138888888888897" header="0.21" footer="0.17013888888888901"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddFooter>&amp;L&amp;8 07.01-BM/PM/HDCV/FIS v1.1&amp;C&amp;"Times New Roman,Bold"&amp;14Internal use&amp;R&amp;P/&amp;N</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABE34846-176A-4F09-B0AC-352C4B85FB06}">
+  <dimension ref="A1:H33"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="15.75"/>
@@ -648,7 +1326,7 @@
     <col min="9" max="16384" width="10.28515625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="51">
+    <row r="1" spans="1:8" ht="51">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -671,18 +1349,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="25.5">
+    <row r="2" spans="1:8" ht="25.5">
       <c r="A2" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>8</v>
@@ -693,7 +1371,7 @@
       <c r="G2" s="5"/>
       <c r="H2" s="7"/>
     </row>
-    <row r="3" spans="1:9" ht="25.5">
+    <row r="3" spans="1:8" ht="25.5">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -708,12 +1386,12 @@
       </c>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="51">
+    <row r="4" spans="1:8" ht="51">
       <c r="A4" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>36</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>37</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="4" t="s">
@@ -727,21 +1405,21 @@
       </c>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="25.5">
+    <row r="5" spans="1:8" ht="25.5">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="D5" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>9</v>
       </c>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:9" ht="38.25">
+    <row r="6" spans="1:8" ht="38.25">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="3" t="s">
@@ -759,11 +1437,8 @@
       <c r="G6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
@@ -778,7 +1453,7 @@
       </c>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="1:9" ht="25.5">
+    <row r="8" spans="1:8" ht="25.5">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="3" t="s">
@@ -795,11 +1470,11 @@
       </c>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="1:9" ht="25.5">
+    <row r="9" spans="1:8" ht="25.5">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>24</v>
@@ -812,7 +1487,7 @@
       </c>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:9" ht="38.25">
+    <row r="10" spans="1:8" ht="38.25">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -829,7 +1504,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="25.5">
+    <row r="11" spans="1:8" ht="25.5">
       <c r="A11" s="8"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -844,7 +1519,7 @@
       </c>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:8">
       <c r="A12" s="9"/>
       <c r="B12" s="10" t="s">
         <v>31</v>
@@ -861,7 +1536,7 @@
       </c>
       <c r="G12" s="5"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:8">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -872,7 +1547,7 @@
       </c>
       <c r="G13" s="11"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:8">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -883,7 +1558,7 @@
       </c>
       <c r="G14" s="11"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:8">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -894,7 +1569,7 @@
       </c>
       <c r="G15" s="11"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:8">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -1083,4 +1758,1369 @@
     <oddFooter>&amp;L&amp;8 07.01-BM/PM/HDCV/FIS v1.1&amp;C&amp;"Times New Roman,Bold"&amp;14Internal use&amp;R&amp;P/&amp;N</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5913A5E6-4EB5-4682-BC85-F77E6705FBA1}">
+  <dimension ref="A1:H33"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="45.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="10.28515625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="51">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="25.5">
+      <c r="A2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="7"/>
+    </row>
+    <row r="3" spans="1:8" ht="25.5">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:8" ht="51">
+      <c r="A4" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:8" ht="25.5">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="D5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:8" ht="38.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:8" ht="25.5">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:8" ht="25.5">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" ht="38.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="25.5">
+      <c r="A11" s="8"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="9"/>
+      <c r="B12" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="11"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="11"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="11"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="12"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="13"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="12"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="13"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="12"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" s="13"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="12"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="13"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="12"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" s="13"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="12"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G22" s="13"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="12"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" s="13"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="12"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" s="13"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="12"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G25" s="13"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="12"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="13"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="12"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="13"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="12"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="13"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="12"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="13"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="12"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="13"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="12"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="13"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="12"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="13"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="12"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.2" right="0.19" top="0.34" bottom="0.35138888888888897" header="0.21" footer="0.17013888888888901"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddFooter>&amp;L&amp;8 07.01-BM/PM/HDCV/FIS v1.1&amp;C&amp;"Times New Roman,Bold"&amp;14Internal use&amp;R&amp;P/&amp;N</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFE6BBCB-CA34-4440-AF18-E1B9ACAE1AA9}">
+  <dimension ref="A1:H33"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="45.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="10.28515625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="51">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="25.5">
+      <c r="A2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="7"/>
+    </row>
+    <row r="3" spans="1:8" ht="25.5">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:8" ht="51">
+      <c r="A4" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:8" ht="25.5">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="D5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:8" ht="38.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:8" ht="25.5">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:8" ht="25.5">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" ht="38.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="25.5">
+      <c r="A11" s="8"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="9"/>
+      <c r="B12" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="11"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="11"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="11"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="12"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="13"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="12"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="13"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="12"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" s="13"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="12"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="13"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="12"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" s="13"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="12"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G22" s="13"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="12"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" s="13"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="12"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" s="13"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="12"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G25" s="13"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="12"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="13"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="12"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="13"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="12"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="13"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="12"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="13"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="12"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="13"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="12"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="13"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="12"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="13"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="12"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.2" right="0.19" top="0.34" bottom="0.35138888888888897" header="0.21" footer="0.17013888888888901"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddFooter>&amp;L&amp;8 07.01-BM/PM/HDCV/FIS v1.1&amp;C&amp;"Times New Roman,Bold"&amp;14Internal use&amp;R&amp;P/&amp;N</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC85323B-6B66-460E-BC69-84B6E70E07C1}">
+  <dimension ref="A1:H33"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="45.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="10.28515625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="51">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="25.5">
+      <c r="A2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="7"/>
+    </row>
+    <row r="3" spans="1:8" ht="25.5">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:8" ht="51">
+      <c r="A4" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:8" ht="25.5">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="D5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:8" ht="38.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:8" ht="25.5">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:8" ht="25.5">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" ht="38.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="25.5">
+      <c r="A11" s="8"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="9"/>
+      <c r="B12" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="11"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="11"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="11"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="12"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="13"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="12"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="13"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="12"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" s="13"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="12"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="13"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="12"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" s="13"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="12"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G22" s="13"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="12"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" s="13"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="12"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" s="13"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="12"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G25" s="13"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="12"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="13"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="12"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="13"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="12"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="13"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="12"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="13"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="12"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="13"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="12"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="13"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="12"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="13"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="12"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.2" right="0.19" top="0.34" bottom="0.35138888888888897" header="0.21" footer="0.17013888888888901"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddFooter>&amp;L&amp;8 07.01-BM/PM/HDCV/FIS v1.1&amp;C&amp;"Times New Roman,Bold"&amp;14Internal use&amp;R&amp;P/&amp;N</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>